--- a/src/main/resources/fumm.xlsx
+++ b/src/main/resources/fumm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9BBB9A3-3FDC-4034-8553-E5230A056EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A2638A5-D2D5-4AC3-81CA-48CD6786FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,40 +26,40 @@
     <t>email</t>
   </si>
   <si>
-    <t>lavi1@zee.com</t>
-  </si>
-  <si>
-    <t>lambu1@zee.com</t>
-  </si>
-  <si>
-    <t>qqangad12@zee.com</t>
-  </si>
-  <si>
-    <t>qqamit1222@zee.com</t>
-  </si>
-  <si>
-    <t>Maaaaa122@zee.com</t>
-  </si>
-  <si>
-    <t>qqqBaa122@zee.com</t>
-  </si>
-  <si>
-    <t>qqqPaa1@zee.com</t>
-  </si>
-  <si>
-    <t>manju123@zee.com</t>
-  </si>
-  <si>
-    <t>Harry@zee.com</t>
-  </si>
-  <si>
-    <t>qazibcaman12qq@zee.com</t>
-  </si>
-  <si>
-    <t>Hemanth@zee.com</t>
-  </si>
-  <si>
-    <t>yogesh@zee.com</t>
+    <t>qazibckaman12qq@zee.com</t>
+  </si>
+  <si>
+    <t>qqqqangad12@zee.com</t>
+  </si>
+  <si>
+    <t>shamit1222@zee.com</t>
+  </si>
+  <si>
+    <t>Mamaaaa122@zee.com</t>
+  </si>
+  <si>
+    <t>qpqpqBaa122@zee.com</t>
+  </si>
+  <si>
+    <t>qqqwertPaa1@zee.com</t>
+  </si>
+  <si>
+    <t>lavi12@zee.com</t>
+  </si>
+  <si>
+    <t>lambu12@zee.com</t>
+  </si>
+  <si>
+    <t>manju0123@zee.com</t>
+  </si>
+  <si>
+    <t>Harry1@zee.com</t>
+  </si>
+  <si>
+    <t>Hemanth1@zee.com</t>
+  </si>
+  <si>
+    <t>yogesh1@zee.com</t>
   </si>
 </sst>
 </file>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +409,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>599</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>199</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>299</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>199</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>599</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>79</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>190</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>122</v>

--- a/src/main/resources/fumm.xlsx
+++ b/src/main/resources/fumm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A2638A5-D2D5-4AC3-81CA-48CD6786FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{06487E0D-D01C-417B-9A7D-C810B2768881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>yogesh1@zee.com</t>
+  </si>
+  <si>
+    <t>divya@gmail.com</t>
+  </si>
+  <si>
+    <t>shre@google.com</t>
   </si>
 </sst>
 </file>
@@ -388,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +507,22 @@
       </c>
       <c r="B13">
         <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -517,6 +539,8 @@
     <hyperlink ref="A11" r:id="rId10" xr:uid="{947905B3-5DCF-4BD5-BFD5-0232D3C82CA9}"/>
     <hyperlink ref="A12" r:id="rId11" xr:uid="{84ABF919-122E-4195-9C26-04A5FE74127D}"/>
     <hyperlink ref="A13" r:id="rId12" xr:uid="{47372AE6-4C6B-4562-9E89-6BD5077801EA}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{28132DCF-234F-4587-9977-C1FC5E5EE5B3}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{6A53EBF3-8EF5-4E5A-A5C5-D154D6DB3129}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
